--- a/pred_ohlcv/54_21/2019-10-18 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 STEEM ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-23196.1768</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-24822.2254</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-27416.30559999999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-29408.12639999999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-29066.78139999999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-29071.98969999999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-29566.21929999999</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-25242.70889999999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-18 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 STEEM ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-23196.1768</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-24822.2254</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-29408.12639999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-29408.12639999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-29407.12639999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-29066.78139999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-29071.98969999999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-29566.21929999999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-25242.70889999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
